--- a/TestCasesUKGSimplified/Qualvis TimeSheets 2023-06-03.xlsx
+++ b/TestCasesUKGSimplified/Qualvis TimeSheets 2023-06-03.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ayahealthcare.sharepoint.com/sites/Team-CostaRica-IT/Shared Documents/Projects/PDF Timesheet Reader - Last Version/QA/UKG - Simplified/V5/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2DF465731C297B7906B480BFEA981AB713EF6750" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{457A3F56-3444-4728-B6A0-0C27FF954896}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2599,8 +2590,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2663,14 +2654,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2717,7 +2700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2749,27 +2732,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2801,24 +2766,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2994,21 +2941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R685"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3064,7 +3004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -3081,7 +3021,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -3098,7 +3038,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3118,7 +3058,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -3138,7 +3078,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -3158,7 +3098,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -3175,7 +3115,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -3195,7 +3135,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -3212,7 +3152,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -3232,7 +3172,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -3249,7 +3189,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -3269,7 +3209,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -3286,7 +3226,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -3306,7 +3246,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -3323,7 +3263,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -3343,7 +3283,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -3363,7 +3303,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -3380,7 +3320,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -3400,7 +3340,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3417,7 +3357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -3437,7 +3377,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3457,7 +3397,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -3474,7 +3414,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -3494,7 +3434,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -3511,7 +3451,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -3531,7 +3471,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" t="s">
         <v>20</v>
       </c>
@@ -3548,7 +3488,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="B28" t="s">
         <v>20</v>
       </c>
@@ -3568,7 +3508,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="B29" t="s">
         <v>20</v>
       </c>
@@ -3585,7 +3525,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10">
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -3605,7 +3545,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="B31" t="s">
         <v>20</v>
       </c>
@@ -3622,7 +3562,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -3642,7 +3582,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="B33" t="s">
         <v>20</v>
       </c>
@@ -3659,7 +3599,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10">
       <c r="B34" t="s">
         <v>20</v>
       </c>
@@ -3679,7 +3619,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -3696,7 +3636,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10">
       <c r="B36" t="s">
         <v>20</v>
       </c>
@@ -3716,7 +3656,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -3733,7 +3673,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10">
       <c r="B38" t="s">
         <v>20</v>
       </c>
@@ -3753,7 +3693,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10">
       <c r="B39" t="s">
         <v>20</v>
       </c>
@@ -3770,7 +3710,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10">
       <c r="B40" t="s">
         <v>20</v>
       </c>
@@ -3790,7 +3730,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -3810,7 +3750,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -3830,7 +3770,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10">
       <c r="B43" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +3790,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10">
       <c r="B44" t="s">
         <v>21</v>
       </c>
@@ -3870,7 +3810,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10">
       <c r="B45" t="s">
         <v>21</v>
       </c>
@@ -3890,7 +3830,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10">
       <c r="B46" t="s">
         <v>21</v>
       </c>
@@ -3910,7 +3850,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10">
       <c r="B47" t="s">
         <v>21</v>
       </c>
@@ -3930,7 +3870,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10">
       <c r="B48" t="s">
         <v>21</v>
       </c>
@@ -3950,7 +3890,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="B49" t="s">
         <v>22</v>
       </c>
@@ -3967,7 +3907,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="B50" t="s">
         <v>22</v>
       </c>
@@ -3987,7 +3927,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="B51" t="s">
         <v>22</v>
       </c>
@@ -4004,7 +3944,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -4024,7 +3964,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10">
       <c r="B53" t="s">
         <v>22</v>
       </c>
@@ -4041,7 +3981,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="B54" t="s">
         <v>22</v>
       </c>
@@ -4061,7 +4001,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" t="s">
         <v>22</v>
       </c>
@@ -4078,7 +4018,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10">
       <c r="B56" t="s">
         <v>22</v>
       </c>
@@ -4098,7 +4038,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10">
       <c r="B57" t="s">
         <v>22</v>
       </c>
@@ -4115,7 +4055,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -4135,7 +4075,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10">
       <c r="B59" t="s">
         <v>22</v>
       </c>
@@ -4152,7 +4092,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10">
       <c r="B60" t="s">
         <v>22</v>
       </c>
@@ -4172,7 +4112,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10">
       <c r="B61" t="s">
         <v>22</v>
       </c>
@@ -4189,7 +4129,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10">
       <c r="B62" t="s">
         <v>22</v>
       </c>
@@ -4209,7 +4149,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10">
       <c r="B63" t="s">
         <v>22</v>
       </c>
@@ -4226,7 +4166,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10">
       <c r="B64" t="s">
         <v>22</v>
       </c>
@@ -4246,7 +4186,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10">
       <c r="B65" t="s">
         <v>23</v>
       </c>
@@ -4263,7 +4203,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10">
       <c r="B66" t="s">
         <v>23</v>
       </c>
@@ -4283,7 +4223,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10">
       <c r="B67" t="s">
         <v>23</v>
       </c>
@@ -4300,7 +4240,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10">
       <c r="B68" t="s">
         <v>23</v>
       </c>
@@ -4320,7 +4260,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10">
       <c r="B69" t="s">
         <v>23</v>
       </c>
@@ -4337,7 +4277,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10">
       <c r="B70" t="s">
         <v>23</v>
       </c>
@@ -4357,7 +4297,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10">
       <c r="B71" t="s">
         <v>23</v>
       </c>
@@ -4374,7 +4314,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10">
       <c r="B72" t="s">
         <v>23</v>
       </c>
@@ -4394,7 +4334,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10">
       <c r="B73" t="s">
         <v>24</v>
       </c>
@@ -4411,7 +4351,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10">
       <c r="B74" t="s">
         <v>24</v>
       </c>
@@ -4431,7 +4371,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10">
       <c r="B75" t="s">
         <v>24</v>
       </c>
@@ -4448,7 +4388,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10">
       <c r="B76" t="s">
         <v>24</v>
       </c>
@@ -4468,7 +4408,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10">
       <c r="B77" t="s">
         <v>24</v>
       </c>
@@ -4485,7 +4425,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10">
       <c r="B78" t="s">
         <v>24</v>
       </c>
@@ -4505,7 +4445,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10">
       <c r="B79" t="s">
         <v>24</v>
       </c>
@@ -4522,7 +4462,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10">
       <c r="B80" t="s">
         <v>24</v>
       </c>
@@ -4542,7 +4482,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10">
       <c r="B81" t="s">
         <v>24</v>
       </c>
@@ -4559,7 +4499,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10">
       <c r="B82" t="s">
         <v>24</v>
       </c>
@@ -4579,7 +4519,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10">
       <c r="B83" t="s">
         <v>24</v>
       </c>
@@ -4596,7 +4536,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10">
       <c r="B84" t="s">
         <v>24</v>
       </c>
@@ -4616,7 +4556,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10">
       <c r="B85" t="s">
         <v>24</v>
       </c>
@@ -4633,7 +4573,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10">
       <c r="B86" t="s">
         <v>24</v>
       </c>
@@ -4653,7 +4593,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10">
       <c r="B87" t="s">
         <v>24</v>
       </c>
@@ -4670,7 +4610,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10">
       <c r="B88" t="s">
         <v>24</v>
       </c>
@@ -4690,7 +4630,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10">
       <c r="B89" t="s">
         <v>25</v>
       </c>
@@ -4707,7 +4647,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10">
       <c r="B90" t="s">
         <v>25</v>
       </c>
@@ -4727,7 +4667,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10">
       <c r="B91" t="s">
         <v>25</v>
       </c>
@@ -4747,7 +4687,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10">
       <c r="B92" t="s">
         <v>25</v>
       </c>
@@ -4764,7 +4704,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10">
       <c r="B93" t="s">
         <v>25</v>
       </c>
@@ -4784,7 +4724,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10">
       <c r="B94" t="s">
         <v>25</v>
       </c>
@@ -4801,7 +4741,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10">
       <c r="B95" t="s">
         <v>25</v>
       </c>
@@ -4821,7 +4761,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10">
       <c r="B96" t="s">
         <v>25</v>
       </c>
@@ -4841,7 +4781,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10">
       <c r="B97" t="s">
         <v>25</v>
       </c>
@@ -4858,7 +4798,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10">
       <c r="B98" t="s">
         <v>25</v>
       </c>
@@ -4878,7 +4818,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10">
       <c r="B99" t="s">
         <v>25</v>
       </c>
@@ -4895,7 +4835,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10">
       <c r="B100" t="s">
         <v>25</v>
       </c>
@@ -4915,7 +4855,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10">
       <c r="B101" t="s">
         <v>25</v>
       </c>
@@ -4935,7 +4875,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10">
       <c r="B102" t="s">
         <v>25</v>
       </c>
@@ -4952,7 +4892,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10">
       <c r="B103" t="s">
         <v>25</v>
       </c>
@@ -4972,7 +4912,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10">
       <c r="B104" t="s">
         <v>25</v>
       </c>
@@ -4989,7 +4929,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10">
       <c r="B105" t="s">
         <v>25</v>
       </c>
@@ -5009,7 +4949,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10">
       <c r="B106" t="s">
         <v>25</v>
       </c>
@@ -5029,7 +4969,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10">
       <c r="B107" t="s">
         <v>25</v>
       </c>
@@ -5046,7 +4986,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10">
       <c r="B108" t="s">
         <v>25</v>
       </c>
@@ -5066,7 +5006,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10">
       <c r="B109" t="s">
         <v>26</v>
       </c>
@@ -5083,7 +5023,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10">
       <c r="B110" t="s">
         <v>26</v>
       </c>
@@ -5103,7 +5043,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10">
       <c r="B111" t="s">
         <v>26</v>
       </c>
@@ -5120,7 +5060,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10">
       <c r="B112" t="s">
         <v>26</v>
       </c>
@@ -5140,7 +5080,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10">
       <c r="B113" t="s">
         <v>26</v>
       </c>
@@ -5157,7 +5097,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10">
       <c r="B114" t="s">
         <v>26</v>
       </c>
@@ -5177,7 +5117,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10">
       <c r="B115" t="s">
         <v>26</v>
       </c>
@@ -5194,7 +5134,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10">
       <c r="B116" t="s">
         <v>26</v>
       </c>
@@ -5214,7 +5154,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10">
       <c r="B117" t="s">
         <v>26</v>
       </c>
@@ -5231,7 +5171,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10">
       <c r="B118" t="s">
         <v>26</v>
       </c>
@@ -5251,7 +5191,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10">
       <c r="B119" t="s">
         <v>26</v>
       </c>
@@ -5268,7 +5208,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10">
       <c r="B120" t="s">
         <v>26</v>
       </c>
@@ -5288,7 +5228,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10">
       <c r="B121" t="s">
         <v>27</v>
       </c>
@@ -5305,7 +5245,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10">
       <c r="B122" t="s">
         <v>27</v>
       </c>
@@ -5325,7 +5265,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10">
       <c r="B123" t="s">
         <v>27</v>
       </c>
@@ -5345,7 +5285,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10">
       <c r="B124" t="s">
         <v>27</v>
       </c>
@@ -5362,7 +5302,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10">
       <c r="B125" t="s">
         <v>27</v>
       </c>
@@ -5382,7 +5322,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10">
       <c r="B126" t="s">
         <v>27</v>
       </c>
@@ -5402,7 +5342,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10">
       <c r="B127" t="s">
         <v>27</v>
       </c>
@@ -5419,7 +5359,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10">
       <c r="B128" t="s">
         <v>27</v>
       </c>
@@ -5439,7 +5379,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10">
       <c r="B129" t="s">
         <v>27</v>
       </c>
@@ -5456,7 +5396,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10">
       <c r="B130" t="s">
         <v>27</v>
       </c>
@@ -5476,7 +5416,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10">
       <c r="B131" t="s">
         <v>27</v>
       </c>
@@ -5493,7 +5433,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10">
       <c r="B132" t="s">
         <v>27</v>
       </c>
@@ -5513,7 +5453,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10">
       <c r="B133" t="s">
         <v>27</v>
       </c>
@@ -5530,7 +5470,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10">
       <c r="B134" t="s">
         <v>27</v>
       </c>
@@ -5547,7 +5487,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10">
       <c r="B135" t="s">
         <v>27</v>
       </c>
@@ -5567,7 +5507,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10">
       <c r="B136" t="s">
         <v>27</v>
       </c>
@@ -5584,7 +5524,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10">
       <c r="B137" t="s">
         <v>27</v>
       </c>
@@ -5604,7 +5544,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10">
       <c r="B138" t="s">
         <v>28</v>
       </c>
@@ -5624,7 +5564,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10">
       <c r="B139" t="s">
         <v>28</v>
       </c>
@@ -5644,7 +5584,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10">
       <c r="B140" t="s">
         <v>28</v>
       </c>
@@ -5664,7 +5604,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10">
       <c r="B141" t="s">
         <v>28</v>
       </c>
@@ -5684,7 +5624,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10">
       <c r="B142" t="s">
         <v>29</v>
       </c>
@@ -5701,7 +5641,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10">
       <c r="B143" t="s">
         <v>29</v>
       </c>
@@ -5721,7 +5661,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10">
       <c r="B144" t="s">
         <v>29</v>
       </c>
@@ -5738,7 +5678,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10">
       <c r="B145" t="s">
         <v>29</v>
       </c>
@@ -5758,7 +5698,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10">
       <c r="B146" t="s">
         <v>29</v>
       </c>
@@ -5775,7 +5715,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10">
       <c r="B147" t="s">
         <v>29</v>
       </c>
@@ -5795,7 +5735,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10">
       <c r="B148" t="s">
         <v>29</v>
       </c>
@@ -5812,7 +5752,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10">
       <c r="B149" t="s">
         <v>29</v>
       </c>
@@ -5832,7 +5772,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10">
       <c r="B150" t="s">
         <v>30</v>
       </c>
@@ -5849,7 +5789,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10">
       <c r="B151" t="s">
         <v>30</v>
       </c>
@@ -5869,7 +5809,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:10">
       <c r="B152" t="s">
         <v>30</v>
       </c>
@@ -5889,7 +5829,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:10">
       <c r="B153" t="s">
         <v>30</v>
       </c>
@@ -5909,7 +5849,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:10">
       <c r="B154" t="s">
         <v>30</v>
       </c>
@@ -5929,7 +5869,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:10">
       <c r="B155" t="s">
         <v>30</v>
       </c>
@@ -5949,7 +5889,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:10">
       <c r="B156" t="s">
         <v>30</v>
       </c>
@@ -5969,7 +5909,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:10">
       <c r="B157" t="s">
         <v>30</v>
       </c>
@@ -5989,7 +5929,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:10">
       <c r="B158" t="s">
         <v>30</v>
       </c>
@@ -6009,7 +5949,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:10">
       <c r="B159" t="s">
         <v>31</v>
       </c>
@@ -6026,7 +5966,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:10">
       <c r="B160" t="s">
         <v>31</v>
       </c>
@@ -6046,7 +5986,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:10">
       <c r="B161" t="s">
         <v>31</v>
       </c>
@@ -6063,7 +6003,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:10">
       <c r="B162" t="s">
         <v>31</v>
       </c>
@@ -6083,7 +6023,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10">
       <c r="B163" t="s">
         <v>31</v>
       </c>
@@ -6100,7 +6040,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:10">
       <c r="B164" t="s">
         <v>31</v>
       </c>
@@ -6120,7 +6060,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:10">
       <c r="B165" t="s">
         <v>31</v>
       </c>
@@ -6137,7 +6077,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:10">
       <c r="B166" t="s">
         <v>31</v>
       </c>
@@ -6157,7 +6097,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:10">
       <c r="B167" t="s">
         <v>31</v>
       </c>
@@ -6174,7 +6114,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:10">
       <c r="B168" t="s">
         <v>31</v>
       </c>
@@ -6194,7 +6134,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:10">
       <c r="B169" t="s">
         <v>31</v>
       </c>
@@ -6211,7 +6151,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:10">
       <c r="B170" t="s">
         <v>31</v>
       </c>
@@ -6231,7 +6171,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:10">
       <c r="B171" t="s">
         <v>31</v>
       </c>
@@ -6248,7 +6188,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:10">
       <c r="B172" t="s">
         <v>31</v>
       </c>
@@ -6268,7 +6208,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:10">
       <c r="B173" t="s">
         <v>31</v>
       </c>
@@ -6285,7 +6225,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:10">
       <c r="B174" t="s">
         <v>31</v>
       </c>
@@ -6305,7 +6245,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:10">
       <c r="B175" t="s">
         <v>32</v>
       </c>
@@ -6322,7 +6262,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:10">
       <c r="B176" t="s">
         <v>32</v>
       </c>
@@ -6342,7 +6282,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:10">
       <c r="B177" t="s">
         <v>32</v>
       </c>
@@ -6359,7 +6299,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:10">
       <c r="B178" t="s">
         <v>32</v>
       </c>
@@ -6379,7 +6319,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:10">
       <c r="B179" t="s">
         <v>32</v>
       </c>
@@ -6396,7 +6336,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10">
       <c r="B180" t="s">
         <v>32</v>
       </c>
@@ -6416,7 +6356,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10">
       <c r="B181" t="s">
         <v>32</v>
       </c>
@@ -6433,7 +6373,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:10">
       <c r="B182" t="s">
         <v>32</v>
       </c>
@@ -6453,7 +6393,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:10">
       <c r="B183" t="s">
         <v>32</v>
       </c>
@@ -6470,7 +6410,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:10">
       <c r="B184" t="s">
         <v>32</v>
       </c>
@@ -6490,7 +6430,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:10">
       <c r="B185" t="s">
         <v>32</v>
       </c>
@@ -6507,7 +6447,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:10">
       <c r="B186" t="s">
         <v>32</v>
       </c>
@@ -6527,7 +6467,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:10">
       <c r="B187" t="s">
         <v>32</v>
       </c>
@@ -6544,7 +6484,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:10">
       <c r="B188" t="s">
         <v>32</v>
       </c>
@@ -6564,7 +6504,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:10">
       <c r="B189" t="s">
         <v>32</v>
       </c>
@@ -6581,7 +6521,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:10">
       <c r="B190" t="s">
         <v>32</v>
       </c>
@@ -6601,7 +6541,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:10">
       <c r="B191" t="s">
         <v>33</v>
       </c>
@@ -6618,7 +6558,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:10">
       <c r="B192" t="s">
         <v>33</v>
       </c>
@@ -6638,7 +6578,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:10">
       <c r="B193" t="s">
         <v>33</v>
       </c>
@@ -6655,7 +6595,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:10">
       <c r="B194" t="s">
         <v>33</v>
       </c>
@@ -6675,7 +6615,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:10">
       <c r="B195" t="s">
         <v>34</v>
       </c>
@@ -6695,7 +6635,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:10">
       <c r="B196" t="s">
         <v>34</v>
       </c>
@@ -6715,7 +6655,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:10">
       <c r="B197" t="s">
         <v>34</v>
       </c>
@@ -6735,7 +6675,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:10">
       <c r="B198" t="s">
         <v>34</v>
       </c>
@@ -6755,7 +6695,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:10">
       <c r="B199" t="s">
         <v>34</v>
       </c>
@@ -6775,7 +6715,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:10">
       <c r="B200" t="s">
         <v>34</v>
       </c>
@@ -6795,7 +6735,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:10">
       <c r="B201" t="s">
         <v>34</v>
       </c>
@@ -6815,7 +6755,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:10">
       <c r="B202" t="s">
         <v>34</v>
       </c>
@@ -6835,7 +6775,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:10">
       <c r="B203" t="s">
         <v>34</v>
       </c>
@@ -6855,7 +6795,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:10">
       <c r="B204" t="s">
         <v>34</v>
       </c>
@@ -6875,7 +6815,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:10">
       <c r="B205" t="s">
         <v>34</v>
       </c>
@@ -6895,7 +6835,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:10">
       <c r="B206" t="s">
         <v>35</v>
       </c>
@@ -6912,7 +6852,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:10">
       <c r="B207" t="s">
         <v>35</v>
       </c>
@@ -6932,7 +6872,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:10">
       <c r="B208" t="s">
         <v>35</v>
       </c>
@@ -6949,7 +6889,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:10">
       <c r="B209" t="s">
         <v>35</v>
       </c>
@@ -6969,7 +6909,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:10">
       <c r="B210" t="s">
         <v>35</v>
       </c>
@@ -6986,7 +6926,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:10">
       <c r="B211" t="s">
         <v>35</v>
       </c>
@@ -7006,7 +6946,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:10">
       <c r="B212" t="s">
         <v>35</v>
       </c>
@@ -7023,7 +6963,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:10">
       <c r="B213" t="s">
         <v>35</v>
       </c>
@@ -7043,7 +6983,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:10">
       <c r="B214" t="s">
         <v>35</v>
       </c>
@@ -7060,7 +7000,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:10">
       <c r="B215" t="s">
         <v>35</v>
       </c>
@@ -7080,7 +7020,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:10">
       <c r="B216" t="s">
         <v>35</v>
       </c>
@@ -7097,7 +7037,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:10">
       <c r="B217" t="s">
         <v>35</v>
       </c>
@@ -7117,7 +7057,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:10">
       <c r="B218" t="s">
         <v>35</v>
       </c>
@@ -7134,7 +7074,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:10">
       <c r="B219" t="s">
         <v>35</v>
       </c>
@@ -7154,7 +7094,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:10">
       <c r="B220" t="s">
         <v>35</v>
       </c>
@@ -7171,7 +7111,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:10">
       <c r="B221" t="s">
         <v>35</v>
       </c>
@@ -7191,7 +7131,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:10">
       <c r="B222" t="s">
         <v>36</v>
       </c>
@@ -7208,7 +7148,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:10">
       <c r="B223" t="s">
         <v>36</v>
       </c>
@@ -7225,7 +7165,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:10">
       <c r="B224" t="s">
         <v>36</v>
       </c>
@@ -7242,7 +7182,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:10">
       <c r="B225" t="s">
         <v>36</v>
       </c>
@@ -7262,7 +7202,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:10">
       <c r="B226" t="s">
         <v>36</v>
       </c>
@@ -7279,7 +7219,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:10">
       <c r="B227" t="s">
         <v>36</v>
       </c>
@@ -7299,7 +7239,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:10">
       <c r="B228" t="s">
         <v>36</v>
       </c>
@@ -7316,7 +7256,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:10">
       <c r="B229" t="s">
         <v>36</v>
       </c>
@@ -7336,7 +7276,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:10">
       <c r="B230" t="s">
         <v>36</v>
       </c>
@@ -7353,7 +7293,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:10">
       <c r="B231" t="s">
         <v>36</v>
       </c>
@@ -7373,7 +7313,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:10">
       <c r="B232" t="s">
         <v>36</v>
       </c>
@@ -7390,7 +7330,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:10">
       <c r="B233" t="s">
         <v>36</v>
       </c>
@@ -7410,7 +7350,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:10">
       <c r="B234" t="s">
         <v>36</v>
       </c>
@@ -7427,7 +7367,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:10">
       <c r="B235" t="s">
         <v>36</v>
       </c>
@@ -7447,7 +7387,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:10">
       <c r="B236" t="s">
         <v>36</v>
       </c>
@@ -7464,7 +7404,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:10">
       <c r="B237" t="s">
         <v>36</v>
       </c>
@@ -7484,7 +7424,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:10">
       <c r="B238" t="s">
         <v>36</v>
       </c>
@@ -7501,7 +7441,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:10">
       <c r="B239" t="s">
         <v>36</v>
       </c>
@@ -7521,7 +7461,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:10">
       <c r="B240" t="s">
         <v>37</v>
       </c>
@@ -7538,7 +7478,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:10">
       <c r="B241" t="s">
         <v>37</v>
       </c>
@@ -7558,7 +7498,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:10">
       <c r="B242" t="s">
         <v>37</v>
       </c>
@@ -7575,7 +7515,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:10">
       <c r="B243" t="s">
         <v>37</v>
       </c>
@@ -7595,7 +7535,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:10">
       <c r="B244" t="s">
         <v>37</v>
       </c>
@@ -7612,7 +7552,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:10">
       <c r="B245" t="s">
         <v>37</v>
       </c>
@@ -7632,7 +7572,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:10">
       <c r="B246" t="s">
         <v>37</v>
       </c>
@@ -7649,7 +7589,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:10">
       <c r="B247" t="s">
         <v>37</v>
       </c>
@@ -7669,7 +7609,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:10">
       <c r="B248" t="s">
         <v>37</v>
       </c>
@@ -7686,7 +7626,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:10">
       <c r="B249" t="s">
         <v>37</v>
       </c>
@@ -7706,7 +7646,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:10">
       <c r="B250" t="s">
         <v>37</v>
       </c>
@@ -7723,7 +7663,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:10">
       <c r="B251" t="s">
         <v>37</v>
       </c>
@@ -7743,7 +7683,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:10">
       <c r="B252" t="s">
         <v>37</v>
       </c>
@@ -7760,7 +7700,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:10">
       <c r="B253" t="s">
         <v>37</v>
       </c>
@@ -7780,7 +7720,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:10">
       <c r="B254" t="s">
         <v>37</v>
       </c>
@@ -7797,7 +7737,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:10">
       <c r="B255" t="s">
         <v>37</v>
       </c>
@@ -7817,7 +7757,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:10">
       <c r="B256" t="s">
         <v>38</v>
       </c>
@@ -7834,7 +7774,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:10">
       <c r="B257" t="s">
         <v>38</v>
       </c>
@@ -7854,7 +7794,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:10">
       <c r="B258" t="s">
         <v>38</v>
       </c>
@@ -7871,7 +7811,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:10">
       <c r="B259" t="s">
         <v>38</v>
       </c>
@@ -7891,7 +7831,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:10">
       <c r="B260" t="s">
         <v>38</v>
       </c>
@@ -7908,7 +7848,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:10">
       <c r="B261" t="s">
         <v>38</v>
       </c>
@@ -7928,7 +7868,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:10">
       <c r="B262" t="s">
         <v>38</v>
       </c>
@@ -7945,7 +7885,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:10">
       <c r="B263" t="s">
         <v>38</v>
       </c>
@@ -7965,7 +7905,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:10">
       <c r="B264" t="s">
         <v>38</v>
       </c>
@@ -7982,7 +7922,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:10">
       <c r="B265" t="s">
         <v>38</v>
       </c>
@@ -8002,7 +7942,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:10">
       <c r="B266" t="s">
         <v>38</v>
       </c>
@@ -8019,7 +7959,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:10">
       <c r="B267" t="s">
         <v>38</v>
       </c>
@@ -8039,7 +7979,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:10">
       <c r="B268" t="s">
         <v>38</v>
       </c>
@@ -8056,7 +7996,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:10">
       <c r="B269" t="s">
         <v>38</v>
       </c>
@@ -8076,7 +8016,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:10">
       <c r="B270" t="s">
         <v>38</v>
       </c>
@@ -8093,7 +8033,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:10">
       <c r="B271" t="s">
         <v>38</v>
       </c>
@@ -8113,7 +8053,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:10">
       <c r="B272" t="s">
         <v>39</v>
       </c>
@@ -8130,7 +8070,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:10">
       <c r="B273" t="s">
         <v>39</v>
       </c>
@@ -8147,7 +8087,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="274" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:10">
       <c r="B274" t="s">
         <v>39</v>
       </c>
@@ -8164,7 +8104,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:10">
       <c r="B275" t="s">
         <v>39</v>
       </c>
@@ -8184,7 +8124,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:10">
       <c r="B276" t="s">
         <v>39</v>
       </c>
@@ -8204,7 +8144,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:10">
       <c r="B277" t="s">
         <v>39</v>
       </c>
@@ -8224,7 +8164,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:10">
       <c r="B278" t="s">
         <v>39</v>
       </c>
@@ -8244,7 +8184,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="279" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:10">
       <c r="B279" t="s">
         <v>39</v>
       </c>
@@ -8264,7 +8204,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="280" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:10">
       <c r="B280" t="s">
         <v>39</v>
       </c>
@@ -8284,7 +8224,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="281" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:10">
       <c r="B281" t="s">
         <v>39</v>
       </c>
@@ -8304,7 +8244,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="282" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:10">
       <c r="B282" t="s">
         <v>39</v>
       </c>
@@ -8324,7 +8264,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="283" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:10">
       <c r="B283" t="s">
         <v>40</v>
       </c>
@@ -8341,7 +8281,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="284" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:10">
       <c r="B284" t="s">
         <v>40</v>
       </c>
@@ -8361,7 +8301,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:10">
       <c r="B285" t="s">
         <v>40</v>
       </c>
@@ -8378,7 +8318,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="286" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:10">
       <c r="B286" t="s">
         <v>40</v>
       </c>
@@ -8398,7 +8338,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="287" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:10">
       <c r="B287" t="s">
         <v>40</v>
       </c>
@@ -8415,7 +8355,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="288" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:10">
       <c r="B288" t="s">
         <v>40</v>
       </c>
@@ -8435,7 +8375,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:10">
       <c r="B289" t="s">
         <v>40</v>
       </c>
@@ -8452,7 +8392,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:10">
       <c r="B290" t="s">
         <v>40</v>
       </c>
@@ -8472,7 +8412,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="291" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:10">
       <c r="B291" t="s">
         <v>40</v>
       </c>
@@ -8489,7 +8429,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="292" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:10">
       <c r="B292" t="s">
         <v>40</v>
       </c>
@@ -8509,7 +8449,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="293" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:10">
       <c r="B293" t="s">
         <v>40</v>
       </c>
@@ -8526,7 +8466,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="294" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:10">
       <c r="B294" t="s">
         <v>40</v>
       </c>
@@ -8546,7 +8486,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="295" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:10">
       <c r="B295" t="s">
         <v>40</v>
       </c>
@@ -8566,7 +8506,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:10">
       <c r="B296" t="s">
         <v>40</v>
       </c>
@@ -8583,7 +8523,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="297" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:10">
       <c r="B297" t="s">
         <v>40</v>
       </c>
@@ -8603,7 +8543,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="298" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:10">
       <c r="B298" t="s">
         <v>40</v>
       </c>
@@ -8620,7 +8560,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="299" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:10">
       <c r="B299" t="s">
         <v>40</v>
       </c>
@@ -8640,7 +8580,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="300" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:10">
       <c r="B300" t="s">
         <v>41</v>
       </c>
@@ -8657,7 +8597,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="301" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:10">
       <c r="B301" t="s">
         <v>41</v>
       </c>
@@ -8674,7 +8614,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="302" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:10">
       <c r="B302" t="s">
         <v>41</v>
       </c>
@@ -8691,7 +8631,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="303" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:10">
       <c r="B303" t="s">
         <v>41</v>
       </c>
@@ -8711,7 +8651,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="304" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:10">
       <c r="B304" t="s">
         <v>41</v>
       </c>
@@ -8728,7 +8668,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="305" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:10">
       <c r="B305" t="s">
         <v>41</v>
       </c>
@@ -8748,7 +8688,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="306" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:10">
       <c r="B306" t="s">
         <v>41</v>
       </c>
@@ -8765,7 +8705,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="307" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:10">
       <c r="B307" t="s">
         <v>41</v>
       </c>
@@ -8785,7 +8725,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="308" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:10">
       <c r="B308" t="s">
         <v>41</v>
       </c>
@@ -8802,7 +8742,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="309" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:10">
       <c r="B309" t="s">
         <v>41</v>
       </c>
@@ -8822,7 +8762,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="310" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:10">
       <c r="B310" t="s">
         <v>41</v>
       </c>
@@ -8839,7 +8779,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="311" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:10">
       <c r="B311" t="s">
         <v>41</v>
       </c>
@@ -8859,7 +8799,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="312" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:10">
       <c r="B312" t="s">
         <v>41</v>
       </c>
@@ -8876,7 +8816,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:10">
       <c r="B313" t="s">
         <v>41</v>
       </c>
@@ -8896,7 +8836,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="314" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:10">
       <c r="B314" t="s">
         <v>41</v>
       </c>
@@ -8913,7 +8853,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="315" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:10">
       <c r="B315" t="s">
         <v>41</v>
       </c>
@@ -8933,7 +8873,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="316" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:10">
       <c r="B316" t="s">
         <v>41</v>
       </c>
@@ -8950,7 +8890,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="317" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:10">
       <c r="B317" t="s">
         <v>41</v>
       </c>
@@ -8970,7 +8910,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="318" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:10">
       <c r="B318" t="s">
         <v>42</v>
       </c>
@@ -8987,7 +8927,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="319" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:10">
       <c r="B319" t="s">
         <v>42</v>
       </c>
@@ -9007,7 +8947,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="320" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:10">
       <c r="B320" t="s">
         <v>42</v>
       </c>
@@ -9024,7 +8964,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:10">
       <c r="B321" t="s">
         <v>42</v>
       </c>
@@ -9044,7 +8984,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:10">
       <c r="B322" t="s">
         <v>42</v>
       </c>
@@ -9064,7 +9004,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:10">
       <c r="B323" t="s">
         <v>42</v>
       </c>
@@ -9081,7 +9021,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="324" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:10">
       <c r="B324" t="s">
         <v>42</v>
       </c>
@@ -9101,7 +9041,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="325" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:10">
       <c r="B325" t="s">
         <v>42</v>
       </c>
@@ -9118,7 +9058,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="326" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:10">
       <c r="B326" t="s">
         <v>42</v>
       </c>
@@ -9138,7 +9078,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="327" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:10">
       <c r="B327" t="s">
         <v>42</v>
       </c>
@@ -9155,7 +9095,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:10">
       <c r="B328" t="s">
         <v>42</v>
       </c>
@@ -9175,7 +9115,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="329" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:10">
       <c r="B329" t="s">
         <v>43</v>
       </c>
@@ -9192,7 +9132,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="330" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:10">
       <c r="B330" t="s">
         <v>43</v>
       </c>
@@ -9212,7 +9152,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="331" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:10">
       <c r="B331" t="s">
         <v>43</v>
       </c>
@@ -9229,7 +9169,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="332" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:10">
       <c r="B332" t="s">
         <v>43</v>
       </c>
@@ -9249,7 +9189,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="333" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:10">
       <c r="B333" t="s">
         <v>43</v>
       </c>
@@ -9266,7 +9206,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="334" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:10">
       <c r="B334" t="s">
         <v>43</v>
       </c>
@@ -9286,7 +9226,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="335" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:10">
       <c r="B335" t="s">
         <v>43</v>
       </c>
@@ -9303,7 +9243,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="336" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:10">
       <c r="B336" t="s">
         <v>43</v>
       </c>
@@ -9323,7 +9263,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:10">
       <c r="B337" t="s">
         <v>43</v>
       </c>
@@ -9340,7 +9280,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:10">
       <c r="B338" t="s">
         <v>43</v>
       </c>
@@ -9360,7 +9300,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:10">
       <c r="B339" t="s">
         <v>43</v>
       </c>
@@ -9377,7 +9317,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:10">
       <c r="B340" t="s">
         <v>43</v>
       </c>
@@ -9397,7 +9337,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:10">
       <c r="B341" t="s">
         <v>43</v>
       </c>
@@ -9417,7 +9357,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:10">
       <c r="B342" t="s">
         <v>43</v>
       </c>
@@ -9434,7 +9374,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:10">
       <c r="B343" t="s">
         <v>43</v>
       </c>
@@ -9454,7 +9394,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:10">
       <c r="B344" t="s">
         <v>44</v>
       </c>
@@ -9471,7 +9411,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:10">
       <c r="B345" t="s">
         <v>44</v>
       </c>
@@ -9491,7 +9431,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:10">
       <c r="B346" t="s">
         <v>44</v>
       </c>
@@ -9508,7 +9448,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:10">
       <c r="B347" t="s">
         <v>44</v>
       </c>
@@ -9528,7 +9468,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:10">
       <c r="B348" t="s">
         <v>44</v>
       </c>
@@ -9548,7 +9488,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:10">
       <c r="B349" t="s">
         <v>44</v>
       </c>
@@ -9565,7 +9505,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:10">
       <c r="B350" t="s">
         <v>44</v>
       </c>
@@ -9585,7 +9525,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:10">
       <c r="B351" t="s">
         <v>44</v>
       </c>
@@ -9602,7 +9542,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:10">
       <c r="B352" t="s">
         <v>44</v>
       </c>
@@ -9622,7 +9562,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:10">
       <c r="B353" t="s">
         <v>44</v>
       </c>
@@ -9639,7 +9579,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:10">
       <c r="B354" t="s">
         <v>44</v>
       </c>
@@ -9659,7 +9599,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:10">
       <c r="B355" t="s">
         <v>44</v>
       </c>
@@ -9676,7 +9616,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:10">
       <c r="B356" t="s">
         <v>44</v>
       </c>
@@ -9696,7 +9636,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:10">
       <c r="B357" t="s">
         <v>44</v>
       </c>
@@ -9713,7 +9653,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:10">
       <c r="B358" t="s">
         <v>44</v>
       </c>
@@ -9733,7 +9673,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:10">
       <c r="B359" t="s">
         <v>45</v>
       </c>
@@ -9750,7 +9690,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:10">
       <c r="B360" t="s">
         <v>45</v>
       </c>
@@ -9770,7 +9710,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:10">
       <c r="B361" t="s">
         <v>45</v>
       </c>
@@ -9787,7 +9727,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:10">
       <c r="B362" t="s">
         <v>45</v>
       </c>
@@ -9807,7 +9747,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:10">
       <c r="B363" t="s">
         <v>45</v>
       </c>
@@ -9824,7 +9764,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="364" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:10">
       <c r="B364" t="s">
         <v>45</v>
       </c>
@@ -9844,7 +9784,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:10">
       <c r="B365" t="s">
         <v>45</v>
       </c>
@@ -9864,7 +9804,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:10">
       <c r="B366" t="s">
         <v>45</v>
       </c>
@@ -9881,7 +9821,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="367" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:10">
       <c r="B367" t="s">
         <v>45</v>
       </c>
@@ -9901,7 +9841,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:10">
       <c r="B368" t="s">
         <v>45</v>
       </c>
@@ -9918,7 +9858,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="369" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:10">
       <c r="B369" t="s">
         <v>45</v>
       </c>
@@ -9938,7 +9878,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="370" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:10">
       <c r="B370" t="s">
         <v>45</v>
       </c>
@@ -9955,7 +9895,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="371" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:10">
       <c r="B371" t="s">
         <v>45</v>
       </c>
@@ -9975,7 +9915,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="372" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:10">
       <c r="B372" t="s">
         <v>45</v>
       </c>
@@ -9992,7 +9932,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="373" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:10">
       <c r="B373" t="s">
         <v>45</v>
       </c>
@@ -10012,7 +9952,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="374" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:10">
       <c r="B374" t="s">
         <v>46</v>
       </c>
@@ -10029,7 +9969,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="375" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:10">
       <c r="B375" t="s">
         <v>46</v>
       </c>
@@ -10046,7 +9986,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="376" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:10">
       <c r="B376" t="s">
         <v>46</v>
       </c>
@@ -10063,7 +10003,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="377" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:10">
       <c r="B377" t="s">
         <v>46</v>
       </c>
@@ -10083,7 +10023,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="378" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:10">
       <c r="B378" t="s">
         <v>46</v>
       </c>
@@ -10100,7 +10040,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="379" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:10">
       <c r="B379" t="s">
         <v>46</v>
       </c>
@@ -10120,7 +10060,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="380" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:10">
       <c r="B380" t="s">
         <v>46</v>
       </c>
@@ -10137,7 +10077,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="381" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:10">
       <c r="B381" t="s">
         <v>46</v>
       </c>
@@ -10157,7 +10097,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="382" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:10">
       <c r="B382" t="s">
         <v>46</v>
       </c>
@@ -10174,7 +10114,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="383" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:10">
       <c r="B383" t="s">
         <v>46</v>
       </c>
@@ -10194,7 +10134,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="384" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:10">
       <c r="B384" t="s">
         <v>46</v>
       </c>
@@ -10211,7 +10151,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="385" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:10">
       <c r="B385" t="s">
         <v>46</v>
       </c>
@@ -10231,7 +10171,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="386" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:10">
       <c r="B386" t="s">
         <v>46</v>
       </c>
@@ -10248,7 +10188,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="387" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:10">
       <c r="B387" t="s">
         <v>46</v>
       </c>
@@ -10268,7 +10208,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="388" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:10">
       <c r="B388" t="s">
         <v>46</v>
       </c>
@@ -10285,7 +10225,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="389" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:10">
       <c r="B389" t="s">
         <v>46</v>
       </c>
@@ -10305,7 +10245,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="390" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:10">
       <c r="B390" t="s">
         <v>46</v>
       </c>
@@ -10322,7 +10262,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="391" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:10">
       <c r="B391" t="s">
         <v>46</v>
       </c>
@@ -10342,7 +10282,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="392" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:10">
       <c r="B392" t="s">
         <v>47</v>
       </c>
@@ -10359,7 +10299,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="393" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:10">
       <c r="B393" t="s">
         <v>47</v>
       </c>
@@ -10379,7 +10319,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="394" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:10">
       <c r="B394" t="s">
         <v>47</v>
       </c>
@@ -10396,7 +10336,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="395" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:10">
       <c r="B395" t="s">
         <v>47</v>
       </c>
@@ -10416,7 +10356,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="396" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:10">
       <c r="B396" t="s">
         <v>47</v>
       </c>
@@ -10433,7 +10373,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="397" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:10">
       <c r="B397" t="s">
         <v>47</v>
       </c>
@@ -10453,7 +10393,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="398" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:10">
       <c r="B398" t="s">
         <v>47</v>
       </c>
@@ -10470,7 +10410,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="399" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:10">
       <c r="B399" t="s">
         <v>47</v>
       </c>
@@ -10490,7 +10430,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="400" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:10">
       <c r="B400" t="s">
         <v>47</v>
       </c>
@@ -10507,7 +10447,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="401" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:10">
       <c r="B401" t="s">
         <v>47</v>
       </c>
@@ -10527,7 +10467,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="402" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:10">
       <c r="B402" t="s">
         <v>47</v>
       </c>
@@ -10547,7 +10487,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="403" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:10">
       <c r="B403" t="s">
         <v>47</v>
       </c>
@@ -10567,7 +10507,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="404" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:10">
       <c r="B404" t="s">
         <v>47</v>
       </c>
@@ -10587,7 +10527,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="405" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:10">
       <c r="B405" t="s">
         <v>47</v>
       </c>
@@ -10607,7 +10547,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="406" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:10">
       <c r="B406" t="s">
         <v>47</v>
       </c>
@@ -10627,7 +10567,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="407" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:10">
       <c r="B407" t="s">
         <v>47</v>
       </c>
@@ -10647,7 +10587,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="408" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:10">
       <c r="B408" t="s">
         <v>47</v>
       </c>
@@ -10667,7 +10607,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="409" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:10">
       <c r="B409" t="s">
         <v>47</v>
       </c>
@@ -10684,7 +10624,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="410" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:10">
       <c r="B410" t="s">
         <v>47</v>
       </c>
@@ -10704,7 +10644,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="411" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:10">
       <c r="B411" t="s">
         <v>47</v>
       </c>
@@ -10721,7 +10661,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="412" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:10">
       <c r="B412" t="s">
         <v>47</v>
       </c>
@@ -10741,7 +10681,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="413" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:10">
       <c r="B413" t="s">
         <v>47</v>
       </c>
@@ -10761,7 +10701,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="414" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:10">
       <c r="B414" t="s">
         <v>47</v>
       </c>
@@ -10778,7 +10718,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="415" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:10">
       <c r="B415" t="s">
         <v>47</v>
       </c>
@@ -10798,7 +10738,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="416" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:10">
       <c r="B416" t="s">
         <v>47</v>
       </c>
@@ -10815,7 +10755,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="417" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:10">
       <c r="B417" t="s">
         <v>47</v>
       </c>
@@ -10835,7 +10775,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="418" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:10">
       <c r="B418" t="s">
         <v>48</v>
       </c>
@@ -10855,7 +10795,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="419" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:10">
       <c r="B419" t="s">
         <v>48</v>
       </c>
@@ -10872,7 +10812,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="420" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:10">
       <c r="B420" t="s">
         <v>48</v>
       </c>
@@ -10892,7 +10832,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="421" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:10">
       <c r="B421" t="s">
         <v>48</v>
       </c>
@@ -10909,7 +10849,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="422" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:10">
       <c r="B422" t="s">
         <v>48</v>
       </c>
@@ -10929,7 +10869,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="423" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:10">
       <c r="B423" t="s">
         <v>48</v>
       </c>
@@ -10946,7 +10886,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="424" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:10">
       <c r="B424" t="s">
         <v>48</v>
       </c>
@@ -10966,7 +10906,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="425" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:10">
       <c r="B425" t="s">
         <v>48</v>
       </c>
@@ -10983,7 +10923,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="426" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:10">
       <c r="B426" t="s">
         <v>48</v>
       </c>
@@ -11003,7 +10943,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="427" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:10">
       <c r="B427" t="s">
         <v>48</v>
       </c>
@@ -11020,7 +10960,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="428" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:10">
       <c r="B428" t="s">
         <v>48</v>
       </c>
@@ -11040,7 +10980,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="429" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:10">
       <c r="B429" t="s">
         <v>48</v>
       </c>
@@ -11057,7 +10997,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="430" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:10">
       <c r="B430" t="s">
         <v>48</v>
       </c>
@@ -11077,7 +11017,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="431" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:10">
       <c r="B431" t="s">
         <v>48</v>
       </c>
@@ -11094,7 +11034,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="432" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:10">
       <c r="B432" t="s">
         <v>48</v>
       </c>
@@ -11114,7 +11054,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="433" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:10">
       <c r="B433" t="s">
         <v>49</v>
       </c>
@@ -11131,7 +11071,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="434" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:10">
       <c r="B434" t="s">
         <v>49</v>
       </c>
@@ -11151,7 +11091,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="435" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:10">
       <c r="B435" t="s">
         <v>49</v>
       </c>
@@ -11168,7 +11108,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="436" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:10">
       <c r="B436" t="s">
         <v>49</v>
       </c>
@@ -11188,7 +11128,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="437" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:10">
       <c r="B437" t="s">
         <v>49</v>
       </c>
@@ -11205,7 +11145,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="438" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:10">
       <c r="B438" t="s">
         <v>49</v>
       </c>
@@ -11225,7 +11165,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="439" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:10">
       <c r="B439" t="s">
         <v>49</v>
       </c>
@@ -11242,7 +11182,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="440" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:10">
       <c r="B440" t="s">
         <v>49</v>
       </c>
@@ -11262,7 +11202,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="441" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:10">
       <c r="B441" t="s">
         <v>49</v>
       </c>
@@ -11282,7 +11222,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="442" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:10">
       <c r="B442" t="s">
         <v>49</v>
       </c>
@@ -11299,7 +11239,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="443" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:10">
       <c r="B443" t="s">
         <v>49</v>
       </c>
@@ -11319,7 +11259,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="444" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:10">
       <c r="B444" t="s">
         <v>49</v>
       </c>
@@ -11339,7 +11279,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="445" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:10">
       <c r="B445" t="s">
         <v>49</v>
       </c>
@@ -11359,7 +11299,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="446" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:10">
       <c r="B446" t="s">
         <v>50</v>
       </c>
@@ -11379,7 +11319,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="447" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:10">
       <c r="B447" t="s">
         <v>50</v>
       </c>
@@ -11399,7 +11339,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="448" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:10">
       <c r="B448" t="s">
         <v>50</v>
       </c>
@@ -11419,7 +11359,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="449" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:10">
       <c r="B449" t="s">
         <v>50</v>
       </c>
@@ -11439,7 +11379,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="450" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:10">
       <c r="B450" t="s">
         <v>50</v>
       </c>
@@ -11456,7 +11396,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="451" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:10">
       <c r="B451" t="s">
         <v>50</v>
       </c>
@@ -11476,7 +11416,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="452" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:10">
       <c r="B452" t="s">
         <v>50</v>
       </c>
@@ -11496,7 +11436,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="453" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:10">
       <c r="B453" t="s">
         <v>51</v>
       </c>
@@ -11513,7 +11453,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="454" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:10">
       <c r="B454" t="s">
         <v>51</v>
       </c>
@@ -11533,7 +11473,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="455" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:10">
       <c r="B455" t="s">
         <v>51</v>
       </c>
@@ -11550,7 +11490,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="456" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:10">
       <c r="B456" t="s">
         <v>51</v>
       </c>
@@ -11570,7 +11510,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="457" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:10">
       <c r="B457" t="s">
         <v>51</v>
       </c>
@@ -11587,7 +11527,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="458" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:10">
       <c r="B458" t="s">
         <v>51</v>
       </c>
@@ -11607,7 +11547,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="459" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:10">
       <c r="B459" t="s">
         <v>51</v>
       </c>
@@ -11624,7 +11564,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="460" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:10">
       <c r="B460" t="s">
         <v>51</v>
       </c>
@@ -11644,7 +11584,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="461" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:10">
       <c r="B461" t="s">
         <v>51</v>
       </c>
@@ -11664,7 +11604,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="462" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:10">
       <c r="B462" t="s">
         <v>51</v>
       </c>
@@ -11681,7 +11621,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="463" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:10">
       <c r="B463" t="s">
         <v>51</v>
       </c>
@@ -11701,7 +11641,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="464" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:10">
       <c r="B464" t="s">
         <v>51</v>
       </c>
@@ -11718,7 +11658,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="465" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:10">
       <c r="B465" t="s">
         <v>51</v>
       </c>
@@ -11738,7 +11678,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="466" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:10">
       <c r="B466" t="s">
         <v>51</v>
       </c>
@@ -11755,7 +11695,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="467" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:10">
       <c r="B467" t="s">
         <v>51</v>
       </c>
@@ -11775,7 +11715,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="468" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:10">
       <c r="B468" t="s">
         <v>51</v>
       </c>
@@ -11792,7 +11732,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="469" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:10">
       <c r="B469" t="s">
         <v>51</v>
       </c>
@@ -11812,7 +11752,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="470" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:10">
       <c r="B470" t="s">
         <v>52</v>
       </c>
@@ -11829,7 +11769,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="471" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:10">
       <c r="B471" t="s">
         <v>52</v>
       </c>
@@ -11849,7 +11789,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="472" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:10">
       <c r="B472" t="s">
         <v>52</v>
       </c>
@@ -11869,7 +11809,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="473" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:10">
       <c r="B473" t="s">
         <v>52</v>
       </c>
@@ -11886,7 +11826,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="474" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:10">
       <c r="B474" t="s">
         <v>52</v>
       </c>
@@ -11906,7 +11846,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="475" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:10">
       <c r="B475" t="s">
         <v>52</v>
       </c>
@@ -11923,7 +11863,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="476" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:10">
       <c r="B476" t="s">
         <v>52</v>
       </c>
@@ -11943,7 +11883,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="477" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:10">
       <c r="B477" t="s">
         <v>52</v>
       </c>
@@ -11960,7 +11900,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="478" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:10">
       <c r="B478" t="s">
         <v>52</v>
       </c>
@@ -11980,7 +11920,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="479" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:10">
       <c r="B479" t="s">
         <v>52</v>
       </c>
@@ -12000,7 +11940,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="480" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:10">
       <c r="B480" t="s">
         <v>52</v>
       </c>
@@ -12017,7 +11957,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="481" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:10">
       <c r="B481" t="s">
         <v>52</v>
       </c>
@@ -12037,7 +11977,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="482" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:10">
       <c r="B482" t="s">
         <v>52</v>
       </c>
@@ -12057,7 +11997,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="483" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:10">
       <c r="B483" t="s">
         <v>52</v>
       </c>
@@ -12077,7 +12017,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="484" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:10">
       <c r="B484" t="s">
         <v>52</v>
       </c>
@@ -12097,7 +12037,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="485" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:10">
       <c r="B485" t="s">
         <v>52</v>
       </c>
@@ -12117,7 +12057,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="486" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:10">
       <c r="B486" t="s">
         <v>52</v>
       </c>
@@ -12134,7 +12074,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="487" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:10">
       <c r="B487" t="s">
         <v>52</v>
       </c>
@@ -12154,7 +12094,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="488" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:10">
       <c r="B488" t="s">
         <v>52</v>
       </c>
@@ -12171,7 +12111,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="489" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:10">
       <c r="B489" t="s">
         <v>52</v>
       </c>
@@ -12191,7 +12131,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="490" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:10">
       <c r="B490" t="s">
         <v>52</v>
       </c>
@@ -12208,7 +12148,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="491" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:10">
       <c r="B491" t="s">
         <v>52</v>
       </c>
@@ -12228,7 +12168,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="492" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:10">
       <c r="B492" t="s">
         <v>52</v>
       </c>
@@ -12245,7 +12185,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="493" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:10">
       <c r="B493" t="s">
         <v>52</v>
       </c>
@@ -12265,7 +12205,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="494" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:10">
       <c r="B494" t="s">
         <v>53</v>
       </c>
@@ -12282,7 +12222,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="495" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:10">
       <c r="B495" t="s">
         <v>53</v>
       </c>
@@ -12302,7 +12242,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="496" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:10">
       <c r="B496" t="s">
         <v>53</v>
       </c>
@@ -12319,7 +12259,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="497" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:10">
       <c r="B497" t="s">
         <v>53</v>
       </c>
@@ -12339,7 +12279,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="498" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:10">
       <c r="B498" t="s">
         <v>53</v>
       </c>
@@ -12356,7 +12296,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="499" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:10">
       <c r="B499" t="s">
         <v>53</v>
       </c>
@@ -12376,7 +12316,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="500" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:10">
       <c r="B500" t="s">
         <v>53</v>
       </c>
@@ -12393,7 +12333,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="501" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:10">
       <c r="B501" t="s">
         <v>53</v>
       </c>
@@ -12413,7 +12353,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="502" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:10">
       <c r="B502" t="s">
         <v>53</v>
       </c>
@@ -12430,7 +12370,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="503" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:10">
       <c r="B503" t="s">
         <v>53</v>
       </c>
@@ -12450,7 +12390,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="504" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:10">
       <c r="B504" t="s">
         <v>53</v>
       </c>
@@ -12467,7 +12407,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="505" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:10">
       <c r="B505" t="s">
         <v>53</v>
       </c>
@@ -12487,7 +12427,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="506" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:10">
       <c r="B506" t="s">
         <v>53</v>
       </c>
@@ -12504,7 +12444,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="507" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:10">
       <c r="B507" t="s">
         <v>53</v>
       </c>
@@ -12524,7 +12464,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="508" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:10">
       <c r="B508" t="s">
         <v>53</v>
       </c>
@@ -12541,7 +12481,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="509" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:10">
       <c r="B509" t="s">
         <v>53</v>
       </c>
@@ -12561,7 +12501,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="510" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:10">
       <c r="B510" t="s">
         <v>54</v>
       </c>
@@ -12578,7 +12518,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="511" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:10">
       <c r="B511" t="s">
         <v>54</v>
       </c>
@@ -12598,7 +12538,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="512" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:10">
       <c r="B512" t="s">
         <v>54</v>
       </c>
@@ -12615,7 +12555,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="513" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:10">
       <c r="B513" t="s">
         <v>54</v>
       </c>
@@ -12635,7 +12575,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="514" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:10">
       <c r="B514" t="s">
         <v>54</v>
       </c>
@@ -12652,7 +12592,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="515" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:10">
       <c r="B515" t="s">
         <v>54</v>
       </c>
@@ -12672,7 +12612,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="516" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:10">
       <c r="B516" t="s">
         <v>54</v>
       </c>
@@ -12689,7 +12629,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="517" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:10">
       <c r="B517" t="s">
         <v>54</v>
       </c>
@@ -12709,7 +12649,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="518" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:10">
       <c r="B518" t="s">
         <v>54</v>
       </c>
@@ -12726,7 +12666,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="519" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:10">
       <c r="B519" t="s">
         <v>54</v>
       </c>
@@ -12746,7 +12686,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="520" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:10">
       <c r="B520" t="s">
         <v>54</v>
       </c>
@@ -12763,7 +12703,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="521" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:10">
       <c r="B521" t="s">
         <v>54</v>
       </c>
@@ -12783,7 +12723,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="522" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:10">
       <c r="B522" t="s">
         <v>54</v>
       </c>
@@ -12800,7 +12740,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="523" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:10">
       <c r="B523" t="s">
         <v>54</v>
       </c>
@@ -12820,7 +12760,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="524" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:10">
       <c r="B524" t="s">
         <v>54</v>
       </c>
@@ -12837,7 +12777,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="525" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:10">
       <c r="B525" t="s">
         <v>54</v>
       </c>
@@ -12857,7 +12797,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="526" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:10">
       <c r="B526" t="s">
         <v>55</v>
       </c>
@@ -12877,7 +12817,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="527" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:10">
       <c r="B527" t="s">
         <v>55</v>
       </c>
@@ -12897,7 +12837,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="528" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:10">
       <c r="B528" t="s">
         <v>55</v>
       </c>
@@ -12914,7 +12854,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="529" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:10">
       <c r="B529" t="s">
         <v>55</v>
       </c>
@@ -12934,7 +12874,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="530" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:10">
       <c r="B530" t="s">
         <v>55</v>
       </c>
@@ -12954,7 +12894,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="531" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:10">
       <c r="B531" t="s">
         <v>55</v>
       </c>
@@ -12974,7 +12914,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="532" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:10">
       <c r="B532" t="s">
         <v>55</v>
       </c>
@@ -12991,7 +12931,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="533" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:10">
       <c r="B533" t="s">
         <v>55</v>
       </c>
@@ -13011,7 +12951,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="534" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:10">
       <c r="B534" t="s">
         <v>55</v>
       </c>
@@ -13028,7 +12968,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="535" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:10">
       <c r="B535" t="s">
         <v>55</v>
       </c>
@@ -13048,7 +12988,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="536" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:10">
       <c r="B536" t="s">
         <v>55</v>
       </c>
@@ -13068,7 +13008,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="537" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:10">
       <c r="B537" t="s">
         <v>56</v>
       </c>
@@ -13085,7 +13025,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="538" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:10">
       <c r="B538" t="s">
         <v>56</v>
       </c>
@@ -13102,7 +13042,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="539" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:10">
       <c r="B539" t="s">
         <v>56</v>
       </c>
@@ -13119,7 +13059,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="540" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:10">
       <c r="B540" t="s">
         <v>56</v>
       </c>
@@ -13139,7 +13079,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="541" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:10">
       <c r="B541" t="s">
         <v>56</v>
       </c>
@@ -13156,7 +13096,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="542" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:10">
       <c r="B542" t="s">
         <v>56</v>
       </c>
@@ -13176,7 +13116,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="543" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:10">
       <c r="B543" t="s">
         <v>56</v>
       </c>
@@ -13193,7 +13133,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="544" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:10">
       <c r="B544" t="s">
         <v>56</v>
       </c>
@@ -13213,7 +13153,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="545" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:10">
       <c r="B545" t="s">
         <v>56</v>
       </c>
@@ -13230,7 +13170,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="546" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:10">
       <c r="B546" t="s">
         <v>56</v>
       </c>
@@ -13250,7 +13190,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="547" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:10">
       <c r="B547" t="s">
         <v>56</v>
       </c>
@@ -13267,7 +13207,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="548" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:10">
       <c r="B548" t="s">
         <v>56</v>
       </c>
@@ -13287,7 +13227,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="549" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:10">
       <c r="B549" t="s">
         <v>56</v>
       </c>
@@ -13304,7 +13244,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="550" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:10">
       <c r="B550" t="s">
         <v>56</v>
       </c>
@@ -13324,7 +13264,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="551" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:10">
       <c r="B551" t="s">
         <v>56</v>
       </c>
@@ -13341,7 +13281,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="552" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:10">
       <c r="B552" t="s">
         <v>56</v>
       </c>
@@ -13361,7 +13301,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="553" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:10">
       <c r="B553" t="s">
         <v>56</v>
       </c>
@@ -13378,7 +13318,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="554" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:10">
       <c r="B554" t="s">
         <v>56</v>
       </c>
@@ -13398,7 +13338,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="555" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:10">
       <c r="B555" t="s">
         <v>56</v>
       </c>
@@ -13415,7 +13355,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="556" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:10">
       <c r="B556" t="s">
         <v>56</v>
       </c>
@@ -13435,7 +13375,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="557" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:10">
       <c r="B557" t="s">
         <v>57</v>
       </c>
@@ -13452,7 +13392,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="558" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:10">
       <c r="B558" t="s">
         <v>57</v>
       </c>
@@ -13472,7 +13412,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="559" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:10">
       <c r="B559" t="s">
         <v>57</v>
       </c>
@@ -13489,7 +13429,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="560" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:10">
       <c r="B560" t="s">
         <v>57</v>
       </c>
@@ -13509,7 +13449,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="561" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:10">
       <c r="B561" t="s">
         <v>57</v>
       </c>
@@ -13526,7 +13466,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="562" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:10">
       <c r="B562" t="s">
         <v>57</v>
       </c>
@@ -13546,7 +13486,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="563" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:10">
       <c r="B563" t="s">
         <v>57</v>
       </c>
@@ -13563,7 +13503,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="564" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:10">
       <c r="B564" t="s">
         <v>57</v>
       </c>
@@ -13583,7 +13523,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="565" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:10">
       <c r="B565" t="s">
         <v>57</v>
       </c>
@@ -13600,7 +13540,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="566" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:10">
       <c r="B566" t="s">
         <v>57</v>
       </c>
@@ -13620,7 +13560,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="567" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:10">
       <c r="B567" t="s">
         <v>57</v>
       </c>
@@ -13637,7 +13577,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="568" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:10">
       <c r="B568" t="s">
         <v>57</v>
       </c>
@@ -13657,7 +13597,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="569" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:10">
       <c r="B569" t="s">
         <v>57</v>
       </c>
@@ -13674,7 +13614,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="570" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:10">
       <c r="B570" t="s">
         <v>57</v>
       </c>
@@ -13694,7 +13634,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="571" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:10">
       <c r="B571" t="s">
         <v>57</v>
       </c>
@@ -13711,7 +13651,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="572" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:10">
       <c r="B572" t="s">
         <v>57</v>
       </c>
@@ -13731,7 +13671,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="573" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:10">
       <c r="B573" t="s">
         <v>58</v>
       </c>
@@ -13751,7 +13691,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="574" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:10">
       <c r="B574" t="s">
         <v>58</v>
       </c>
@@ -13771,7 +13711,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="575" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:10">
       <c r="B575" t="s">
         <v>58</v>
       </c>
@@ -13791,7 +13731,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="576" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:10">
       <c r="B576" t="s">
         <v>58</v>
       </c>
@@ -13811,7 +13751,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="577" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:10">
       <c r="B577" t="s">
         <v>58</v>
       </c>
@@ -13831,7 +13771,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="578" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:10">
       <c r="B578" t="s">
         <v>58</v>
       </c>
@@ -13851,7 +13791,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="579" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:10">
       <c r="B579" t="s">
         <v>58</v>
       </c>
@@ -13871,7 +13811,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="580" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:10">
       <c r="B580" t="s">
         <v>58</v>
       </c>
@@ -13891,7 +13831,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="581" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:10">
       <c r="B581" t="s">
         <v>59</v>
       </c>
@@ -13908,7 +13848,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="582" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:10">
       <c r="B582" t="s">
         <v>59</v>
       </c>
@@ -13928,7 +13868,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="583" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:10">
       <c r="B583" t="s">
         <v>59</v>
       </c>
@@ -13945,7 +13885,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="584" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:10">
       <c r="B584" t="s">
         <v>59</v>
       </c>
@@ -13965,7 +13905,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="585" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:10">
       <c r="B585" t="s">
         <v>59</v>
       </c>
@@ -13982,7 +13922,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="586" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:10">
       <c r="B586" t="s">
         <v>59</v>
       </c>
@@ -14002,7 +13942,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="587" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:10">
       <c r="B587" t="s">
         <v>59</v>
       </c>
@@ -14019,7 +13959,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="588" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:10">
       <c r="B588" t="s">
         <v>59</v>
       </c>
@@ -14039,7 +13979,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="589" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:10">
       <c r="B589" t="s">
         <v>59</v>
       </c>
@@ -14056,7 +13996,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="590" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:10">
       <c r="B590" t="s">
         <v>59</v>
       </c>
@@ -14076,7 +14016,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="591" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:10">
       <c r="B591" t="s">
         <v>59</v>
       </c>
@@ -14093,7 +14033,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="592" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:10">
       <c r="B592" t="s">
         <v>59</v>
       </c>
@@ -14113,7 +14053,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="593" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:10">
       <c r="B593" t="s">
         <v>59</v>
       </c>
@@ -14130,7 +14070,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="594" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:10">
       <c r="B594" t="s">
         <v>59</v>
       </c>
@@ -14150,7 +14090,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="595" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:10">
       <c r="B595" t="s">
         <v>60</v>
       </c>
@@ -14167,7 +14107,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="596" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:10">
       <c r="B596" t="s">
         <v>60</v>
       </c>
@@ -14187,7 +14127,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="597" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:10">
       <c r="B597" t="s">
         <v>60</v>
       </c>
@@ -14204,7 +14144,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="598" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:10">
       <c r="B598" t="s">
         <v>60</v>
       </c>
@@ -14224,7 +14164,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="599" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:10">
       <c r="B599" t="s">
         <v>60</v>
       </c>
@@ -14241,7 +14181,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="600" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:10">
       <c r="B600" t="s">
         <v>60</v>
       </c>
@@ -14261,7 +14201,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="601" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:10">
       <c r="B601" t="s">
         <v>60</v>
       </c>
@@ -14281,7 +14221,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="602" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:10">
       <c r="B602" t="s">
         <v>60</v>
       </c>
@@ -14298,7 +14238,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="603" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:10">
       <c r="B603" t="s">
         <v>60</v>
       </c>
@@ -14318,7 +14258,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="604" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:10">
       <c r="B604" t="s">
         <v>60</v>
       </c>
@@ -14335,7 +14275,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="605" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:10">
       <c r="B605" t="s">
         <v>60</v>
       </c>
@@ -14355,7 +14295,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="606" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:10">
       <c r="B606" t="s">
         <v>60</v>
       </c>
@@ -14372,7 +14312,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="607" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:10">
       <c r="B607" t="s">
         <v>60</v>
       </c>
@@ -14392,7 +14332,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="608" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:10">
       <c r="B608" t="s">
         <v>60</v>
       </c>
@@ -14409,7 +14349,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="609" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:10">
       <c r="B609" t="s">
         <v>60</v>
       </c>
@@ -14429,7 +14369,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="610" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:10">
       <c r="B610" t="s">
         <v>61</v>
       </c>
@@ -14449,7 +14389,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="611" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:10">
       <c r="B611" t="s">
         <v>61</v>
       </c>
@@ -14466,7 +14406,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="612" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:10">
       <c r="B612" t="s">
         <v>61</v>
       </c>
@@ -14486,7 +14426,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="613" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:10">
       <c r="B613" t="s">
         <v>61</v>
       </c>
@@ -14506,7 +14446,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="614" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:10">
       <c r="B614" t="s">
         <v>61</v>
       </c>
@@ -14523,7 +14463,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="615" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:10">
       <c r="B615" t="s">
         <v>61</v>
       </c>
@@ -14543,7 +14483,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="616" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:10">
       <c r="B616" t="s">
         <v>61</v>
       </c>
@@ -14563,7 +14503,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="617" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:10">
       <c r="B617" t="s">
         <v>61</v>
       </c>
@@ -14580,7 +14520,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="618" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:10">
       <c r="B618" t="s">
         <v>61</v>
       </c>
@@ -14600,7 +14540,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="619" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:10">
       <c r="B619" t="s">
         <v>61</v>
       </c>
@@ -14617,7 +14557,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="620" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:10">
       <c r="B620" t="s">
         <v>61</v>
       </c>
@@ -14637,7 +14577,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="621" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:10">
       <c r="B621" t="s">
         <v>61</v>
       </c>
@@ -14657,7 +14597,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="622" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:10">
       <c r="B622" t="s">
         <v>62</v>
       </c>
@@ -14674,7 +14614,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="623" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:10">
       <c r="B623" t="s">
         <v>62</v>
       </c>
@@ -14694,7 +14634,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="624" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:10">
       <c r="B624" t="s">
         <v>62</v>
       </c>
@@ -14711,7 +14651,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="625" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:10">
       <c r="B625" t="s">
         <v>62</v>
       </c>
@@ -14731,7 +14671,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="626" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:10">
       <c r="B626" t="s">
         <v>62</v>
       </c>
@@ -14748,7 +14688,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="627" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:10">
       <c r="B627" t="s">
         <v>62</v>
       </c>
@@ -14768,7 +14708,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="628" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:10">
       <c r="B628" t="s">
         <v>62</v>
       </c>
@@ -14785,7 +14725,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="629" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:10">
       <c r="B629" t="s">
         <v>62</v>
       </c>
@@ -14805,7 +14745,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="630" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:10">
       <c r="B630" t="s">
         <v>62</v>
       </c>
@@ -14822,7 +14762,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="631" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:10">
       <c r="B631" t="s">
         <v>62</v>
       </c>
@@ -14842,7 +14782,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="632" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:10">
       <c r="B632" t="s">
         <v>62</v>
       </c>
@@ -14859,7 +14799,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="633" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:10">
       <c r="B633" t="s">
         <v>62</v>
       </c>
@@ -14879,7 +14819,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="634" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:10">
       <c r="B634" t="s">
         <v>62</v>
       </c>
@@ -14896,7 +14836,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="635" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:10">
       <c r="B635" t="s">
         <v>62</v>
       </c>
@@ -14916,7 +14856,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="636" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:10">
       <c r="B636" t="s">
         <v>63</v>
       </c>
@@ -14933,7 +14873,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="637" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:10">
       <c r="B637" t="s">
         <v>64</v>
       </c>
@@ -14950,7 +14890,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="638" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:10">
       <c r="B638" t="s">
         <v>64</v>
       </c>
@@ -14970,7 +14910,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="639" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:10">
       <c r="B639" t="s">
         <v>64</v>
       </c>
@@ -14987,7 +14927,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="640" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:10">
       <c r="B640" t="s">
         <v>64</v>
       </c>
@@ -15007,7 +14947,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="641" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:10">
       <c r="B641" t="s">
         <v>64</v>
       </c>
@@ -15024,7 +14964,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="642" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:10">
       <c r="B642" t="s">
         <v>64</v>
       </c>
@@ -15044,7 +14984,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="643" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:10">
       <c r="B643" t="s">
         <v>64</v>
       </c>
@@ -15061,7 +15001,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="644" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:10">
       <c r="B644" t="s">
         <v>64</v>
       </c>
@@ -15081,7 +15021,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="645" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:10">
       <c r="B645" t="s">
         <v>64</v>
       </c>
@@ -15098,7 +15038,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="646" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:10">
       <c r="B646" t="s">
         <v>64</v>
       </c>
@@ -15118,7 +15058,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="647" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:10">
       <c r="B647" t="s">
         <v>64</v>
       </c>
@@ -15135,7 +15075,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="648" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:10">
       <c r="B648" t="s">
         <v>64</v>
       </c>
@@ -15155,7 +15095,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="649" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:10">
       <c r="B649" t="s">
         <v>64</v>
       </c>
@@ -15172,7 +15112,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="650" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:10">
       <c r="B650" t="s">
         <v>64</v>
       </c>
@@ -15192,7 +15132,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="651" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:10">
       <c r="B651" t="s">
         <v>64</v>
       </c>
@@ -15209,7 +15149,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="652" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:10">
       <c r="B652" t="s">
         <v>64</v>
       </c>
@@ -15229,7 +15169,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="653" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:10">
       <c r="B653" t="s">
         <v>65</v>
       </c>
@@ -15246,7 +15186,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="654" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:10">
       <c r="B654" t="s">
         <v>65</v>
       </c>
@@ -15266,7 +15206,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="655" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:10">
       <c r="B655" t="s">
         <v>65</v>
       </c>
@@ -15283,7 +15223,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="656" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:10">
       <c r="B656" t="s">
         <v>65</v>
       </c>
@@ -15303,7 +15243,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="657" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:10">
       <c r="B657" t="s">
         <v>65</v>
       </c>
@@ -15323,7 +15263,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="658" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:10">
       <c r="B658" t="s">
         <v>65</v>
       </c>
@@ -15340,7 +15280,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="659" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:10">
       <c r="B659" t="s">
         <v>65</v>
       </c>
@@ -15360,7 +15300,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="660" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:10">
       <c r="B660" t="s">
         <v>65</v>
       </c>
@@ -15377,7 +15317,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="661" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:10">
       <c r="B661" t="s">
         <v>65</v>
       </c>
@@ -15397,7 +15337,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="662" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:10">
       <c r="B662" t="s">
         <v>65</v>
       </c>
@@ -15417,7 +15357,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="663" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:10">
       <c r="B663" t="s">
         <v>65</v>
       </c>
@@ -15437,7 +15377,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="664" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:10">
       <c r="B664" t="s">
         <v>65</v>
       </c>
@@ -15457,7 +15397,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="665" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:10">
       <c r="B665" t="s">
         <v>65</v>
       </c>
@@ -15477,7 +15417,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="666" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:10">
       <c r="B666" t="s">
         <v>65</v>
       </c>
@@ -15497,7 +15437,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="667" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:10">
       <c r="B667" t="s">
         <v>65</v>
       </c>
@@ -15514,7 +15454,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="668" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:10">
       <c r="B668" t="s">
         <v>65</v>
       </c>
@@ -15534,7 +15474,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="669" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:10">
       <c r="B669" t="s">
         <v>65</v>
       </c>
@@ -15554,7 +15494,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="670" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:10">
       <c r="B670" t="s">
         <v>65</v>
       </c>
@@ -15571,7 +15511,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="671" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:10">
       <c r="B671" t="s">
         <v>65</v>
       </c>
@@ -15591,7 +15531,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="672" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:10">
       <c r="B672" t="s">
         <v>65</v>
       </c>
@@ -15608,7 +15548,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="673" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:10">
       <c r="B673" t="s">
         <v>65</v>
       </c>
@@ -15628,7 +15568,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="674" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:10">
       <c r="B674" t="s">
         <v>65</v>
       </c>
@@ -15645,7 +15585,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="675" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:10">
       <c r="B675" t="s">
         <v>65</v>
       </c>
@@ -15665,7 +15605,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="676" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:10">
       <c r="B676" t="s">
         <v>66</v>
       </c>
@@ -15682,7 +15622,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="677" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:10">
       <c r="B677" t="s">
         <v>66</v>
       </c>
@@ -15699,7 +15639,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="678" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:10">
       <c r="B678" t="s">
         <v>66</v>
       </c>
@@ -15716,7 +15656,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="679" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:10">
       <c r="B679" t="s">
         <v>66</v>
       </c>
@@ -15736,7 +15676,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="680" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:10">
       <c r="B680" t="s">
         <v>66</v>
       </c>
@@ -15753,7 +15693,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="681" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:10">
       <c r="B681" t="s">
         <v>66</v>
       </c>
@@ -15773,7 +15713,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="682" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:10">
       <c r="B682" t="s">
         <v>66</v>
       </c>
@@ -15790,7 +15730,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="683" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:10">
       <c r="B683" t="s">
         <v>66</v>
       </c>
@@ -15810,7 +15750,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="684" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:10">
       <c r="B684" t="s">
         <v>66</v>
       </c>
@@ -15827,7 +15767,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="685" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:10">
       <c r="B685" t="s">
         <v>66</v>
       </c>
@@ -15848,14 +15788,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9af2e30293fc1ae2c5718fcac55aaadf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd728ddf0b116993a82566dab177cb1d" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15f4007343d69c31faccb6c57ce3ea95">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af64184185331e52028044e26cabcf7e" ns2:_="" ns3:_="">
     <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
     <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
     <xsd:element name="properties">
@@ -15878,6 +15817,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15948,6 +15888,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
@@ -16100,28 +16045,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46AE045C-1406-4BD4-92A9-AD5F53E43697}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <ds:schemaRef ds:uri="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26CDD715-FD6B-479E-9256-AE60F3E21A85}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FF7042D-2981-497C-9788-17C8B15C16FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C37BB594-5BCD-44F5-B887-A60E1E2CB08A}"/>
 </file>